--- a/2022_01_22/NASDAQ/2022_01_22_NASDAQ_MaxArea_Portfolio_250_20.xlsx
+++ b/2022_01_22/NASDAQ/2022_01_22_NASDAQ_MaxArea_Portfolio_250_20.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filip\Desktop\investments_f\2022_01_22\NASDAQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA903E8-D17D-4E65-8848-155D06DBF34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BB6059-DA6D-4157-B89F-2DFA54630337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -329,7 +341,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -355,11 +367,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -375,7 +388,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -671,15 +684,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CW2"/>
+  <dimension ref="A1:CW3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BP1" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="M3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="1"/>
+    <col min="1" max="1" width="7.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.81640625" customWidth="1"/>
     <col min="3" max="3" width="5.7265625" customWidth="1"/>
     <col min="4" max="4" width="4.1796875" customWidth="1"/>
@@ -781,7 +794,7 @@
     <col min="101" max="101" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1086,7 +1099,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:101">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1390,6 +1403,10 @@
       <c r="CW2">
         <v>0</v>
       </c>
+    </row>
+    <row r="3" spans="1:101" x14ac:dyDescent="0.35">
+      <c r="AN3" s="1"/>
+      <c r="BB3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
